--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.15/avg_0.003_scores.xlsx
@@ -40,18 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,7 +76,7 @@
     <t>fears</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>low</t>
   </si>
   <si>
     <t>negative</t>
@@ -88,36 +94,36 @@
     <t>best</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -130,76 +136,70 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -676,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -726,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8493150684931506</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.9666666666666667</v>
@@ -776,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8378378378378378</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>354</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>354</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7666666666666667</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0.9230769230769231</v>
@@ -926,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6944444444444444</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.9190600522193212</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>352</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5873015873015873</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
@@ -1026,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4476744186046512</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C11">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>0.9069767441860465</v>
@@ -1076,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4117647058823529</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.9056603773584906</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,54 +1126,78 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.28</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C13">
+        <v>272</v>
+      </c>
+      <c r="D13">
+        <v>272</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>244</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>0.89375</v>
+      </c>
+      <c r="L13">
+        <v>143</v>
+      </c>
+      <c r="M13">
+        <v>143</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="C14">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>54</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="K13">
-        <v>0.9014084507042254</v>
-      </c>
-      <c r="L13">
-        <v>128</v>
-      </c>
-      <c r="M13">
-        <v>128</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <v>0.8928571428571429</v>
@@ -1198,17 +1222,41 @@
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.2013422818791946</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>119</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1220,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.88125</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L16">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1246,12 +1294,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17">
         <v>0.8723404255319149</v>
@@ -1277,7 +1325,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K18">
         <v>0.8620689655172413</v>
@@ -1303,7 +1351,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K19">
         <v>0.8611111111111112</v>
@@ -1329,7 +1377,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>0.8536585365853658</v>
@@ -1355,16 +1403,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.84</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1376,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1402,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.8148148148148148</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1428,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1454,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.7936507936507936</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1480,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.7714285714285715</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1506,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.7692307692307693</v>
+        <v>0.78</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1532,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.7558823529411764</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L28">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1558,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1584,12 +1632,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>0.7288135593220338</v>
@@ -1615,16 +1663,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.7142857142857143</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1636,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.7112970711297071</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L32">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="M32">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1662,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.6914893617021277</v>
+        <v>0.7</v>
       </c>
       <c r="L33">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1688,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1714,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.6853932584269663</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L35">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1740,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.6785714285714286</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1766,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.6307692307692307</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L37">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1792,47 +1840,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.6060606060606061</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>20</v>
-      </c>
-      <c r="M38">
-        <v>20</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.5476190476190477</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1844,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.5098039215686274</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1870,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4888888888888889</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1896,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.4230769230769231</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1922,59 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K43">
-        <v>0.3972602739726027</v>
-      </c>
-      <c r="L43">
-        <v>29</v>
-      </c>
-      <c r="M43">
-        <v>29</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K44">
-        <v>0.3728813559322034</v>
-      </c>
-      <c r="L44">
-        <v>22</v>
-      </c>
-      <c r="M44">
-        <v>22</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
